--- a/ExcelHelper/1.xlsx
+++ b/ExcelHelper/1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xinjiboy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\project\dotcore\wpf\Tools\ExcelHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DDCDF9-BD5E-4BD6-B971-EF3E54E22716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,12 +64,16 @@
   </si>
   <si>
     <t>不使用</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,111 +391,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>3.3332999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选项" sqref="C2:C8" xr:uid="{C4E41C27-488D-4A7B-8895-86F7055F8E1C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选项" sqref="B2:B8">
       <formula1>"使用,不使用"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelHelper/1.xlsx
+++ b/ExcelHelper/1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\project\dotcore\wpf\Tools\ExcelHelper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\project\dotnetcore\wpf\Tools\ExcelHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591478EB-DC72-4655-AA98-16088EB71F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,13 +68,17 @@
   </si>
   <si>
     <t>Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,16 +396,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,8 +418,11 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -427,8 +435,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -441,8 +452,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -455,8 +469,11 @@
       <c r="D4">
         <v>3.3332999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -466,8 +483,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -477,8 +497,11 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -488,8 +511,11 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -498,12 +524,15 @@
       </c>
       <c r="C8" t="s">
         <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选项" sqref="B2:B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选项" sqref="B2:B8 E2:E8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"使用,不使用"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelHelper/1.xlsx
+++ b/ExcelHelper/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\project\dotnetcore\wpf\Tools\ExcelHelper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\project\netcore\wpf\Tools\ExcelHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591478EB-DC72-4655-AA98-16088EB71F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0690E6A9-0471-4789-B39F-5AD42F628960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,23 +73,29 @@
   <si>
     <t>选项1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项2</t>
+  </si>
+  <si>
+    <t>ffffff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -119,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,10 +425,13 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -436,10 +445,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -453,10 +465,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -470,10 +485,13 @@
         <v>3.3332999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -484,10 +502,13 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -498,10 +519,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -512,10 +536,13 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -526,13 +553,16 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选项" sqref="B2:B8 E2:E8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选项" sqref="B2:B8 F2:F8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"使用,不使用"</formula1>
     </dataValidation>
   </dataValidations>
